--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="352">
   <si>
     <t>Action</t>
   </si>
@@ -148,18 +148,12 @@
     <t>TC_CityMarket_06</t>
   </si>
   <si>
-    <t>City Marketplace</t>
-  </si>
-  <si>
     <t>VerifyTitle</t>
   </si>
   <si>
     <t>VerifyElement</t>
   </si>
   <si>
-    <t xml:space="preserve">Element verified succesfully </t>
-  </si>
-  <si>
     <t>Verify My Account Link</t>
   </si>
   <si>
@@ -235,13 +229,7 @@
     <t>magestore-button-sociallogin</t>
   </si>
   <si>
-    <t>Click Performed succesfully</t>
-  </si>
-  <si>
     <t>//a[contains(text(),'My Account')]</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: 123456</t>
   </si>
   <si>
     <t>title should be City Marketplace</t>
@@ -767,372 +755,363 @@
     <t>"Thank you for your subscription." messge should appear on the screen</t>
   </si>
   <si>
-    <t>text verified: Choose</t>
-  </si>
-  <si>
-    <t>text verified: Receive</t>
-  </si>
-  <si>
-    <t>text verified: Enjoy</t>
-  </si>
-  <si>
-    <t>text verified: 717 West Ave Norwalk, Connecticut,
+    <t>Verify category and it's product</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct</t>
+  </si>
+  <si>
+    <t>User should able to verify Category and it;'s product</t>
+  </si>
+  <si>
+    <t>//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']</t>
+  </si>
+  <si>
+    <t>Click on  User name</t>
+  </si>
+  <si>
+    <t>User should able to click.</t>
+  </si>
+  <si>
+    <t>Click on Sign out link</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Sign Out')]</t>
+  </si>
+  <si>
+    <t>user should able to click</t>
+  </si>
+  <si>
+    <t>Project Name: Aislend(CityMarket)</t>
+  </si>
+  <si>
+    <t>Randomemailid</t>
+  </si>
+  <si>
+    <t>Akash Sangal</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Akash')]</t>
+  </si>
+  <si>
+    <t>wait for 6 sec</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>"6000"</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>.//span[normalize-space(@class) = 'customer-name']/span</t>
+  </si>
+  <si>
+    <t>verify title and user will login with city market web application</t>
+  </si>
+  <si>
+    <t>userchandna3369332@mailinator.com</t>
+  </si>
+  <si>
+    <t>Menus should appear on the screen</t>
+  </si>
+  <si>
+    <t>US_ID_14</t>
+  </si>
+  <si>
+    <t>verify Header "Offer"</t>
+  </si>
+  <si>
+    <t>//div[normalize-space(@class) = '_block home__offer-title']</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>//div[normalize-space(@class) = 'home__offer-title bg-stock']</t>
+  </si>
+  <si>
+    <t>//div[normalize-space(@class) = '_block home__offer-title bg-stock']</t>
+  </si>
+  <si>
+    <t>Header offer should appear on the screen</t>
+  </si>
+  <si>
+    <t>Check for news letter with correct and incorrect email ids</t>
+  </si>
+  <si>
+    <t>asdasd@</t>
+  </si>
+  <si>
+    <t>verify message "Please enter a valid email address (Ex: johndoe@domain.com)."</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>newsletter-error</t>
+  </si>
+  <si>
+    <t>Message "Please enter a valid email address (Ex: johndoe@domain.com)." should appear on the screen.</t>
+  </si>
+  <si>
+    <t>Verify arrow functionality on home page under meal section</t>
+  </si>
+  <si>
+    <t>//button[normalize-space(@class) = 'slick-next slick-arrow']</t>
+  </si>
+  <si>
+    <t>User should able to click on button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on right arrow button </t>
+  </si>
+  <si>
+    <t>Click on left arrow button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space(@class) = 'slick-prev slick-arrow']</t>
+  </si>
+  <si>
+    <t>"3000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banner should be clickable </t>
+  </si>
+  <si>
+    <t>verify footer links</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks</t>
+  </si>
+  <si>
+    <t>//div[normalize-space(@class) = 'footer__inner-left']</t>
+  </si>
+  <si>
+    <t>US_ID_15</t>
+  </si>
+  <si>
+    <t>verify Footer Links</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Terms of Use</t>
+  </si>
+  <si>
+    <t>City Super Market Norwalk - Privacy Policy</t>
+  </si>
+  <si>
+    <t>//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash Sangal</t>
+  </si>
+  <si>
+    <t>VerifyText: Offer</t>
+  </si>
+  <si>
+    <t>VerifyText: Meat</t>
+  </si>
+  <si>
+    <t>VerifyText: All Categories</t>
+  </si>
+  <si>
+    <t>VerifyText: Choose</t>
+  </si>
+  <si>
+    <t>VerifyText: Receive</t>
+  </si>
+  <si>
+    <t>VerifyText: Enjoy</t>
+  </si>
+  <si>
+    <t>VerifyText: 717 West Ave Norwalk, Connecticut,
 CT 06850 , USA
 +1 203-956-0241</t>
   </si>
   <si>
-    <t>text verified: All Days 7:30 AM – 9:00 PM</t>
-  </si>
-  <si>
-    <t>text verified: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
-  </si>
-  <si>
-    <t>Action performed successfully: Child</t>
-  </si>
-  <si>
-    <t>Verify category and it's product</t>
-  </si>
-  <si>
-    <t>VerifyCategoryAndProduct</t>
-  </si>
-  <si>
-    <t>User should able to verify Category and it;'s product</t>
-  </si>
-  <si>
-    <t>//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']</t>
-  </si>
-  <si>
-    <t>Click on  User name</t>
-  </si>
-  <si>
-    <t>User should able to click.</t>
-  </si>
-  <si>
-    <t>Click on Sign out link</t>
-  </si>
-  <si>
-    <t>//a[contains(text(),'Sign Out')]</t>
-  </si>
-  <si>
-    <t>user should able to click</t>
-  </si>
-  <si>
-    <t>Project Name: Aislend(CityMarket)</t>
-  </si>
-  <si>
-    <t>Randomemailid</t>
-  </si>
-  <si>
-    <t>Akash Sangal</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),'Akash')]</t>
-  </si>
-  <si>
-    <t>text verified: Akash Sangal</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Account</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Account Information</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Orders</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Saved Cards</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Wish List</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Delivery Coverage</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Offers</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Sign Out</t>
-  </si>
-  <si>
-    <t>text verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: milk</t>
-  </si>
-  <si>
-    <t>wait for 6 sec</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>"6000"</t>
-  </si>
-  <si>
-    <t>Product searched successfully: Skim Plus 100% Fat Free Milk</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
-    <t>text verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
-    <t>action click failed</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>.//span[normalize-space(@class) = 'customer-name']/span</t>
-  </si>
-  <si>
-    <t>verify title and user will login with city market web application</t>
-  </si>
-  <si>
-    <t>userchandna3369332@mailinator.com</t>
-  </si>
-  <si>
-    <t>Menus should appear on the screen</t>
-  </si>
-  <si>
-    <t>US_ID_14</t>
-  </si>
-  <si>
-    <t>verify Header "Offer"</t>
-  </si>
-  <si>
-    <t>//div[normalize-space(@class) = '_block home__offer-title']</t>
-  </si>
-  <si>
-    <t>Offer</t>
-  </si>
-  <si>
-    <t>//div[normalize-space(@class) = 'home__offer-title bg-stock']</t>
-  </si>
-  <si>
-    <t>verify Header "Meals"</t>
-  </si>
-  <si>
-    <t>verify Header "All Categories"</t>
-  </si>
-  <si>
-    <t>All Categories</t>
-  </si>
-  <si>
-    <t>//div[normalize-space(@class) = '_block home__offer-title bg-stock']</t>
-  </si>
-  <si>
-    <t>Header offer should appear on the screen</t>
-  </si>
-  <si>
-    <t>Header Meals should appear on the screen</t>
-  </si>
-  <si>
-    <t>Header "All categories" should appear on the screen</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Marketplace</t>
-  </si>
-  <si>
-    <t>text verified: All Categories</t>
-  </si>
-  <si>
-    <t>Check for news letter with correct and incorrect email ids</t>
-  </si>
-  <si>
-    <t>verify headers offer, meals and all categories</t>
-  </si>
-  <si>
-    <t>asdasd@</t>
-  </si>
-  <si>
-    <t>verify message "Please enter a valid email address (Ex: johndoe@domain.com)."</t>
-  </si>
-  <si>
-    <t>Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>newsletter-error</t>
-  </si>
-  <si>
-    <t>Message "Please enter a valid email address (Ex: johndoe@domain.com)." should appear on the screen.</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: asdasd@</t>
-  </si>
-  <si>
-    <t>text verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>Verify arrow functionality on home page under meal section</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna3369332@mailinator.com</t>
-  </si>
-  <si>
-    <t>//button[normalize-space(@class) = 'slick-next slick-arrow']</t>
-  </si>
-  <si>
-    <t>User should able to click on button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on right arrow button </t>
-  </si>
-  <si>
-    <t>Click on left arrow button</t>
-  </si>
-  <si>
-    <t>//button[normalize-space(@class) = 'slick-prev slick-arrow']</t>
-  </si>
-  <si>
-    <t>"3000"</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: 3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banner should be clickable </t>
-  </si>
-  <si>
-    <t>action VerifySlider failed: null</t>
-  </si>
-  <si>
-    <t>verify footer links</t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks</t>
-  </si>
-  <si>
-    <t>//div[normalize-space(@class) = 'footer__inner-left']</t>
-  </si>
-  <si>
-    <t>US_ID_15</t>
-  </si>
-  <si>
-    <t>verify Footer Links</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: Offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verification of Category and it's product succesfully </t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks successfully: null</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>City Market Norwalk - Terms of Use</t>
-  </si>
-  <si>
-    <t>City Super Market Norwalk - Privacy Policy</t>
-  </si>
-  <si>
-    <t>//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']</t>
-  </si>
-  <si>
-    <t>text verified: Meat</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Market Norwalk - Terms of Use</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Super Market Norwalk - Privacy Policy</t>
-  </si>
-  <si>
-    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>Title verification Failed: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (943, 592). Other element would receive the click: &lt;div class="text" data-notify-html="text"&gt;...&lt;/div&gt;
+    <t>VerifyText: All Days 7:30 AM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>VerifyText: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Terms of Use</t>
+  </si>
+  <si>
+    <t>CloseBrowser: Child</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Super Market Norwalk - Privacy Policy</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Offers</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Account</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Account Information</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Orders</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Saved Cards</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Wish List</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Delivery Coverage</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Offers</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Sign Out</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SetText: milk</t>
+  </si>
+  <si>
+    <t>SearchProduct: Skim Plus 100% Fat Free Milk</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>Wait: 3000</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct: null</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 110 milliseconds
+Command duration or timeout: 34 milliseconds
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir8284_2642}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c73506e288936c03f1d867791e0dd740</t>
-  </si>
-  <si>
-    <t>Element verification Failed</t>
-  </si>
-  <si>
-    <t>action set text failed: userchandna5593954@mailinator.com</t>
-  </si>
-  <si>
-    <t>action set text failed: 123456</t>
-  </si>
-  <si>
-    <t>text not verified: Akash Sangal</t>
-  </si>
-  <si>
-    <t>text not verified: Offer</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = '_block home__offer-title'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1852_6395}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: c722fa5f1e07794f4a62674b45560173</t>
+  </si>
+  <si>
+    <t>Latin American</t>
+  </si>
+  <si>
+    <t>verify Header "Latin American"</t>
+  </si>
+  <si>
+    <t>Header Latin American should appear on the screen</t>
+  </si>
+  <si>
+    <t>POPULAR CATEGORIES</t>
+  </si>
+  <si>
+    <t>verify Header "POPULAR CATEGORIES"</t>
+  </si>
+  <si>
+    <t>Header "POPULAR CATEGORIES" should appear on the screen</t>
+  </si>
+  <si>
+    <t>verify headers offer, meals and POPULAR CATEGORIES and verify the link under POPULAR CATEGORIES</t>
+  </si>
+  <si>
+    <t>Verify Multilink section is working or not</t>
+  </si>
+  <si>
+    <t>VerifyPopularMultiLink</t>
+  </si>
+  <si>
+    <t>//section[normalize-space(@class) = 'multilinks__container _block']</t>
+  </si>
+  <si>
+    <t>MultiLink section should work fine.</t>
+  </si>
+  <si>
+    <t>userchandna9779109@mailinator.com</t>
+  </si>
+  <si>
+    <t>SetText: userchandna9779109@mailinator.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Latin American</t>
+  </si>
+  <si>
+    <t>VerifyText: POPULAR CATEGORIES</t>
+  </si>
+  <si>
+    <t>VerifyPopularMultiLink: null</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 47 milliseconds
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir6392_31650}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 79106bd1747286a03322bc96a9ab5fd6</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Text Entered successfully: Randomemailid</t>
-  </si>
-  <si>
-    <t>text verified: Offer</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 598). Other element would receive the click: &lt;div class="text" data-notify-html="text"&gt;...&lt;/div&gt;
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14748_8883}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: e94edf47ff520170e7f7d76c7c135db7</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 38 milliseconds
+Command duration or timeout: 36 milliseconds
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir10992_26299}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: b6bff45c3fe92ee896dcbc16ad62ac17</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 598). Other element would receive the click: &lt;div class="text" data-notify-html="text"&gt;...&lt;/div&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 44 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir8564_16081}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 06c4f7d7d3541e1fcd4d749faf568d0f</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3fddb53966380820a83efadd593af767</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1265,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1314,6 +1293,12 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1643,7 +1628,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1658,78 +1643,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="6"/>
     </row>
     <row r="8" spans="1:7">
@@ -1745,119 +1730,119 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row ht="30" r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>304</v>
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1880,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1949,7 +1934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:15">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1957,24 +1942,24 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
@@ -1983,7 +1968,7 @@
         <v>22</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="3" spans="1:15">
@@ -1994,26 +1979,26 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -2022,7 +2007,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="4" spans="1:15">
@@ -2042,17 +2027,17 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -2061,7 +2046,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="5" spans="1:15">
@@ -2072,26 +2057,26 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -2100,10 +2085,10 @@
         <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="6" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2111,32 +2096,32 @@
         <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -2145,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="7" spans="1:15">
@@ -2156,16 +2141,16 @@
         <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>25</v>
@@ -2174,10 +2159,10 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -2186,7 +2171,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="8" spans="1:15">
@@ -2194,29 +2179,29 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -2225,7 +2210,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="9" spans="1:15">
@@ -2233,31 +2218,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -2266,35 +2251,35 @@
         <v>22</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="10" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -2303,37 +2288,37 @@
         <v>22</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="75" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -2342,37 +2327,37 @@
         <v>22</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -2381,37 +2366,37 @@
         <v>22</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
@@ -2420,37 +2405,37 @@
         <v>22</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -2459,37 +2444,37 @@
         <v>22</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -2498,37 +2483,37 @@
         <v>22</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -2537,37 +2522,37 @@
         <v>22</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="75" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>21</v>
@@ -2576,39 +2561,39 @@
         <v>22</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="409.5" r="18" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>21</v>
@@ -2617,39 +2602,39 @@
         <v>22</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="60" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>21</v>
@@ -2658,39 +2643,39 @@
         <v>22</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="60" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -2699,39 +2684,37 @@
         <v>22</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="21" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>120</v>
+        <v>343</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -2740,39 +2723,39 @@
         <v>22</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="22" spans="1:15">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -2781,39 +2764,39 @@
         <v>22</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -2822,39 +2805,39 @@
         <v>22</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="24" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>21</v>
@@ -2863,39 +2846,39 @@
         <v>22</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="25" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="75" r="25" spans="1:15">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -2904,39 +2887,39 @@
         <v>22</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="90" r="26" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="26" spans="1:15">
       <c r="A26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -2945,37 +2928,39 @@
         <v>22</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="27" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="90" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -2984,37 +2969,37 @@
         <v>22</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>21</v>
@@ -3023,35 +3008,37 @@
         <v>22</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -3060,37 +3047,35 @@
         <v>22</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="30" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -3099,74 +3084,76 @@
         <v>22</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="32" spans="1:15">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="32" spans="1:15">
-      <c r="A32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" s="4"/>
+        <v>290</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -3175,37 +3162,35 @@
         <v>22</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="33" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -3214,37 +3199,37 @@
         <v>22</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>21</v>
@@ -3253,37 +3238,37 @@
         <v>22</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>21</v>
@@ -3292,37 +3277,37 @@
         <v>22</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>21</v>
@@ -3331,37 +3316,37 @@
         <v>22</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -3370,35 +3355,37 @@
         <v>22</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="38" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="38" spans="1:15">
       <c r="A38" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>21</v>
@@ -3407,37 +3394,35 @@
         <v>22</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="39" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -3446,35 +3431,37 @@
         <v>22</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="75" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>338</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>21</v>
@@ -3483,37 +3470,35 @@
         <v>22</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="41" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>21</v>
@@ -3522,37 +3507,37 @@
         <v>22</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>21</v>
@@ -3561,39 +3546,37 @@
         <v>22</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>21</v>
@@ -3602,39 +3585,39 @@
         <v>22</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -3643,39 +3626,39 @@
         <v>22</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -3684,39 +3667,39 @@
         <v>22</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -3725,39 +3708,39 @@
         <v>22</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -3766,39 +3749,39 @@
         <v>22</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -3807,39 +3790,39 @@
         <v>22</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -3848,39 +3831,39 @@
         <v>22</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -3889,37 +3872,39 @@
         <v>22</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="51" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G51" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -3928,27 +3913,27 @@
         <v>22</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="52" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -3958,7 +3943,7 @@
         <v>203</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>21</v>
@@ -3967,37 +3952,37 @@
         <v>22</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="53" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -4006,37 +3991,37 @@
         <v>22</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="54" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>21</v>
@@ -4045,39 +4030,37 @@
         <v>22</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="55" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="75" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>21</v>
@@ -4086,37 +4069,39 @@
         <v>22</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="56" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -4125,37 +4110,37 @@
         <v>22</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="57" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>21</v>
@@ -4164,39 +4149,37 @@
         <v>22</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="58" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="75" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>232</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -4205,37 +4188,39 @@
         <v>22</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="59" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="59" spans="1:15">
       <c r="A59" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G59" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -4244,39 +4229,37 @@
         <v>22</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="60" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="60" spans="1:15">
       <c r="A60" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>233</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>21</v>
@@ -4285,37 +4268,39 @@
         <v>22</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="75" r="61" spans="1:15">
       <c r="A61" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -4324,35 +4309,37 @@
         <v>22</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="75" r="62" spans="1:15">
       <c r="A62" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4" t="s">
-        <v>338</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>21</v>
@@ -4361,39 +4348,35 @@
         <v>22</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="63" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="63" spans="1:15">
       <c r="A63" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>305</v>
+        <v>40</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>21</v>
@@ -4402,37 +4385,39 @@
         <v>22</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="64" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="30" r="64" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G64" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>271</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -4441,39 +4426,37 @@
         <v>22</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="65" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="65" spans="1:15">
       <c r="A65" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>307</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>21</v>
@@ -4482,39 +4465,39 @@
         <v>22</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="66" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="75" r="66" spans="1:15">
       <c r="A66" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -4523,37 +4506,39 @@
         <v>22</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="67" spans="1:15">
       <c r="A67" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -4562,39 +4547,37 @@
         <v>22</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="68" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="68" spans="1:15">
       <c r="A68" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>21</v>
@@ -4603,113 +4586,115 @@
         <v>22</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="409.5" r="69" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="69" spans="1:15">
       <c r="A69" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G69" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="70" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="409.5" r="70" spans="1:15">
       <c r="A70" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="71" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>69</v>
+        <v>328</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>21</v>
@@ -4718,35 +4703,37 @@
         <v>22</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="72" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="72" spans="1:15">
       <c r="A72" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
-        <v>319</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -4755,37 +4742,35 @@
         <v>22</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="73" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>69</v>
+        <v>328</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -4794,37 +4779,37 @@
         <v>22</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="74" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="74" spans="1:15">
       <c r="A74" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -4833,37 +4818,37 @@
         <v>22</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="75" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="75" spans="1:15">
       <c r="A75" s="4" t="s">
-        <v>289</v>
+        <v>55</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -4872,37 +4857,37 @@
         <v>22</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="76" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="76" spans="1:15">
       <c r="A76" s="4" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -4911,18 +4896,18 @@
         <v>22</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>19</v>
@@ -4931,17 +4916,17 @@
         <v>20</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>21</v>
@@ -4950,33 +4935,37 @@
         <v>22</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="78" spans="1:15">
       <c r="A78" s="4" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4" t="s">
-        <v>278</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
+      <c r="K78" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="L78" s="4" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>21</v>
@@ -4985,37 +4974,33 @@
         <v>22</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="79" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="4" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G79" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="K79" s="4"/>
       <c r="L79" s="4" t="s">
-        <v>43</v>
+        <v>331</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -5024,13 +5009,52 @@
         <v>22</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="45" r="80" spans="1:15">
+      <c r="A80" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H6"/>
-    <hyperlink r:id="rId2" ref="G63"/>
+    <hyperlink r:id="rId2" ref="G64"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5039,10 +5063,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="C11" sqref="C11:O11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5108,7 +5132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:15">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -5116,24 +5140,24 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
@@ -5142,7 +5166,7 @@
         <v>22</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="3" spans="1:15">
@@ -5153,26 +5177,26 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -5181,7 +5205,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="4" spans="1:15">
@@ -5201,17 +5225,17 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -5220,7 +5244,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="5" spans="1:15">
@@ -5231,26 +5255,26 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -5259,7 +5283,7 @@
         <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="6" spans="1:15">
@@ -5270,28 +5294,32 @@
         <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>251</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -5300,7 +5328,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="7" spans="1:15">
@@ -5311,16 +5339,16 @@
         <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>25</v>
@@ -5329,10 +5357,10 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -5341,7 +5369,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="30" r="8" spans="1:15">
@@ -5349,29 +5377,29 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -5380,39 +5408,39 @@
         <v>22</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row ht="45" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -5421,35 +5449,39 @@
         <v>22</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -5458,51 +5490,95 @@
         <v>22</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="11" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="60" r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G6"/>
+    <hyperlink r:id="rId1" ref="H6"/>
+    <hyperlink r:id="rId2" ref="G6"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="354">
   <si>
     <t>Action</t>
   </si>
@@ -1112,6 +1112,28 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 3fddb53966380820a83efadd593af767</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 29 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 43 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
   </si>
 </sst>
 </file>
@@ -4663,7 +4685,7 @@
         <v>258</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>91</v>

--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\aislend\CityMarket\lib_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7905" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario_HomePage" r:id="rId1" sheetId="2"/>
-    <sheet name="TC_HomePage" r:id="rId2" sheetId="3"/>
-    <sheet name="TC_HomePage1" r:id="rId3" sheetId="1"/>
+    <sheet name="Scenario_HomePage" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_HomePage" sheetId="3" r:id="rId2"/>
+    <sheet name="TC_HomePage1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="346">
   <si>
     <t>Action</t>
   </si>
@@ -932,12 +932,6 @@
     <t>VerifyText: Offer</t>
   </si>
   <si>
-    <t>VerifyText: Meat</t>
-  </si>
-  <si>
-    <t>VerifyText: All Categories</t>
-  </si>
-  <si>
     <t>VerifyText: Choose</t>
   </si>
   <si>
@@ -1030,17 +1024,6 @@
     <t>Wait: 6000</t>
   </si>
   <si>
-    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 34 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir1852_6395}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: c722fa5f1e07794f4a62674b45560173</t>
-  </si>
-  <si>
     <t>Latin American</t>
   </si>
   <si>
@@ -1087,60 +1070,12 @@
   </si>
   <si>
     <t>VerifyPopularMultiLink: null</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 47 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir14748_8883}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: e94edf47ff520170e7f7d76c7c135db7</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 36 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13564_28830}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3fddb53966380820a83efadd593af767</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 29 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;button class="slick-next slick-arrow" aria-label="..." type="button" aria-disabled="false" style="display: block;"&gt;Next&lt;/button&gt; is not clickable at point (1314, 584). Other element would receive the click: &lt;div class="notifyjs-metro-base notifyjs-metro-success"&gt;...&lt;/div&gt;
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 43 milliseconds
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1283,64 +1218,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -1367,10 +1302,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1389,10 +1324,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1427,7 +1362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1462,7 +1397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,21 +1491,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1587,7 +1522,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1639,14 +1574,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -1655,13 +1590,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="57.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
-    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="49.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="57.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
+    <col min="6" max="6" width="49.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1763,12 +1698,12 @@
         <v>77</v>
       </c>
     </row>
-    <row ht="30" r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1869,47 +1804,47 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1956,7 +1891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="60">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1993,7 +1928,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -2032,7 +1967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +2006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2110,7 +2045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="30">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2155,7 +2090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="30">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2131,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="30">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2235,7 +2170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="45">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2276,7 +2211,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="60">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -2313,7 +2248,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="75">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -2352,7 +2287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="45">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2391,7 +2326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="30">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -2430,7 +2365,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="45">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -2469,7 +2404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="45">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -2508,7 +2443,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="30">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -2547,7 +2482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="75">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -2586,7 +2521,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="45">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -2627,7 +2562,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="60">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -2635,7 +2570,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>57</v>
@@ -2647,16 +2582,16 @@
         <v>267</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>21</v>
@@ -2668,7 +2603,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="60">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2676,7 +2611,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>57</v>
@@ -2688,16 +2623,16 @@
         <v>268</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -2709,7 +2644,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="60">
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2717,26 +2652,26 @@
         <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -2748,7 +2683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="30">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -2777,7 +2712,7 @@
         <v>116</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -2789,7 +2724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="30">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
@@ -2818,7 +2753,7 @@
         <v>117</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -2830,7 +2765,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="30">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2859,7 +2794,7 @@
         <v>118</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>21</v>
@@ -2871,7 +2806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="75">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -2900,7 +2835,7 @@
         <v>127</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -2912,7 +2847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="45">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -2941,7 +2876,7 @@
         <v>128</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -2953,7 +2888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="90" r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="90">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -2982,7 +2917,7 @@
         <v>139</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -2994,7 +2929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="45">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -3033,7 +2968,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="30">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -3060,7 +2995,7 @@
         <v>141</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -3072,7 +3007,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="30">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3097,7 +3032,7 @@
         <v>142</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -3109,7 +3044,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="45">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -3148,7 +3083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="45">
       <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
@@ -3175,7 +3110,7 @@
         <v>144</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -3187,7 +3122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -3212,7 +3147,7 @@
         <v>145</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -3224,7 +3159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="45">
       <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
@@ -3263,7 +3198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="45">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
@@ -3302,7 +3237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="45">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3341,7 +3276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="45">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -3368,7 +3303,7 @@
         <v>158</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -3380,7 +3315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="45">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -3419,7 +3354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="30">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
@@ -3444,7 +3379,7 @@
         <v>170</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -3456,7 +3391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="75">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
@@ -3495,7 +3430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="60">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3532,7 +3467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="45">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -3571,7 +3506,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="45">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
@@ -3610,7 +3545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="45">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -3639,7 +3574,7 @@
         <v>175</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -3651,7 +3586,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="45">
       <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
@@ -3680,7 +3615,7 @@
         <v>185</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -3692,7 +3627,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="45">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -3721,7 +3656,7 @@
         <v>187</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -3733,7 +3668,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="45">
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
@@ -3762,7 +3697,7 @@
         <v>189</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -3774,7 +3709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="45">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -3803,7 +3738,7 @@
         <v>191</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -3815,7 +3750,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="45">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -3844,7 +3779,7 @@
         <v>193</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -3856,7 +3791,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="45">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -3885,7 +3820,7 @@
         <v>195</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -3897,7 +3832,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="45">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -3926,7 +3861,7 @@
         <v>197</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -3938,7 +3873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="30">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -3977,7 +3912,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="45">
       <c r="A53" s="4" t="s">
         <v>50</v>
       </c>
@@ -4004,7 +3939,7 @@
         <v>199</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -4016,7 +3951,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="54" spans="1:15">
+    <row r="54" spans="1:15" ht="60">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -4055,7 +3990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="75">
       <c r="A55" s="4" t="s">
         <v>51</v>
       </c>
@@ -4094,7 +4029,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="56" spans="1:15">
+    <row r="56" spans="1:15" ht="60">
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
@@ -4123,7 +4058,7 @@
         <v>215</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -4135,7 +4070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="30">
       <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
@@ -4174,7 +4109,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="75">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
@@ -4201,7 +4136,7 @@
         <v>217</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -4213,7 +4148,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="30">
       <c r="A59" s="4" t="s">
         <v>52</v>
       </c>
@@ -4242,7 +4177,7 @@
         <v>220</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -4254,7 +4189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="45">
       <c r="A60" s="4" t="s">
         <v>52</v>
       </c>
@@ -4293,7 +4228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="61" spans="1:15">
+    <row r="61" spans="1:15" ht="75">
       <c r="A61" s="4" t="s">
         <v>52</v>
       </c>
@@ -4322,7 +4257,7 @@
         <v>227</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -4334,7 +4269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="62" spans="1:15">
+    <row r="62" spans="1:15" ht="75">
       <c r="A62" s="4" t="s">
         <v>52</v>
       </c>
@@ -4373,7 +4308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="63" spans="1:15">
+    <row r="63" spans="1:15" ht="60">
       <c r="A63" s="4" t="s">
         <v>52</v>
       </c>
@@ -4410,7 +4345,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="64" spans="1:15">
+    <row r="64" spans="1:15" ht="30">
       <c r="A64" s="4" t="s">
         <v>53</v>
       </c>
@@ -4439,7 +4374,7 @@
         <v>238</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -4451,7 +4386,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="65" spans="1:15">
+    <row r="65" spans="1:15" ht="45">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
@@ -4490,7 +4425,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="75" r="66" spans="1:15">
+    <row r="66" spans="1:15" ht="75">
       <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
@@ -4519,7 +4454,7 @@
         <v>275</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -4531,7 +4466,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="45">
       <c r="A67" s="4" t="s">
         <v>53</v>
       </c>
@@ -4560,7 +4495,7 @@
         <v>238</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -4572,7 +4507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="45">
       <c r="A68" s="4" t="s">
         <v>53</v>
       </c>
@@ -4611,7 +4546,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="69" spans="1:15">
+    <row r="69" spans="1:15" ht="60">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
@@ -4640,7 +4575,7 @@
         <v>240</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>21</v>
@@ -4652,7 +4587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="409.5" r="70" spans="1:15">
+    <row r="70" spans="1:15">
       <c r="A70" s="4" t="s">
         <v>54</v>
       </c>
@@ -4660,38 +4595,36 @@
         <v>34</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G70" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" ht="45">
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
@@ -4699,36 +4632,36 @@
         <v>35</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
-        <v>282</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N71" s="4"/>
       <c r="O71" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="72" spans="1:15">
+    <row r="72" spans="1:15">
       <c r="A72" s="4" t="s">
         <v>54</v>
       </c>
@@ -4736,26 +4669,24 @@
         <v>36</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G72" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -4767,7 +4698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" ht="45">
       <c r="A73" s="4" t="s">
         <v>54</v>
       </c>
@@ -4775,24 +4706,26 @@
         <v>37</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
-        <v>282</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -4804,7 +4737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="74" spans="1:15">
+    <row r="74" spans="1:15">
       <c r="A74" s="4" t="s">
         <v>54</v>
       </c>
@@ -4812,26 +4745,24 @@
         <v>38</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -4843,34 +4774,34 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="75" spans="1:15">
+    <row r="75" spans="1:15" ht="45">
       <c r="A75" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -4882,34 +4813,34 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="76" spans="1:15">
+    <row r="76" spans="1:15" ht="60">
       <c r="A76" s="4" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -4921,34 +4852,34 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="77" spans="1:15">
+    <row r="77" spans="1:15" ht="45">
       <c r="A77" s="4" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>21</v>
@@ -4960,15 +4891,15 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="78" spans="1:15">
+    <row r="78" spans="1:15" ht="30">
       <c r="A78" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>19</v>
@@ -4977,14 +4908,14 @@
         <v>20</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>295</v>
@@ -4999,30 +4930,34 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" ht="30">
       <c r="A79" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4" t="s">
-        <v>256</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="L79" s="4" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -5034,80 +4969,115 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="80" spans="1:15">
+    <row r="80" spans="1:15">
       <c r="A80" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G80" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="4"/>
+      <c r="L80" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="45">
+      <c r="A81" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L81" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O80" s="4" t="s">
+      <c r="M81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" s="4" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H6"/>
-    <hyperlink r:id="rId2" ref="G64"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="G64" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
-    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5154,7 +5124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="60">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -5191,7 +5161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -5230,7 +5200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -5269,7 +5239,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -5308,7 +5278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="45">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -5328,7 +5298,7 @@
         <v>64</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>261</v>
@@ -5341,7 +5311,7 @@
         <v>74</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -5353,7 +5323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="30">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -5394,7 +5364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="30">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5433,7 +5403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="45" r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="45">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -5474,7 +5444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="60">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -5482,7 +5452,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>57</v>
@@ -5494,16 +5464,16 @@
         <v>267</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -5515,7 +5485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="60">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -5523,7 +5493,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>57</v>
@@ -5535,16 +5505,16 @@
         <v>268</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -5556,7 +5526,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="60" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="60">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -5564,26 +5534,26 @@
         <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -5597,10 +5567,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H6"/>
-    <hyperlink r:id="rId2" ref="G6"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akash\aislend\CityMarket\lib_testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7905" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario_HomePage" sheetId="2" r:id="rId1"/>
-    <sheet name="TC_HomePage" sheetId="3" r:id="rId2"/>
-    <sheet name="TC_HomePage1" sheetId="1" r:id="rId3"/>
+    <sheet name="Scenario_HomePage" r:id="rId1" sheetId="2"/>
+    <sheet name="TC_HomePage" r:id="rId2" sheetId="3"/>
+    <sheet name="TC_HomePage1" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="352">
   <si>
     <t>Action</t>
   </si>
@@ -1070,12 +1070,61 @@
   </si>
   <si>
     <t>VerifyPopularMultiLink: null</t>
+  </si>
+  <si>
+    <t>text not verified: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1218,64 +1267,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -1302,10 +1351,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1324,10 +1373,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1362,7 +1411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1397,7 +1446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1491,21 +1540,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1522,7 +1571,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1574,14 +1623,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -1590,13 +1639,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="57.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
-    <col min="6" max="6" width="49.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="57.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
+    <col min="5" max="5" style="5" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="49.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1698,7 +1747,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row ht="30" r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1816,35 +1865,35 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1891,7 +1940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1977,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row ht="30" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1967,7 +2016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2045,7 +2094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30">
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row ht="30" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +2180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row ht="30" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row ht="45" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2211,7 +2260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60">
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -2248,7 +2297,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="75">
+    <row ht="75" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -2287,7 +2336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45">
+    <row ht="45" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2326,7 +2375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30">
+    <row ht="30" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -2365,7 +2414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45">
+    <row ht="45" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
@@ -2404,7 +2453,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45">
+    <row ht="45" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
@@ -2443,7 +2492,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30">
+    <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -2482,7 +2531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="75">
+    <row ht="75" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -2521,7 +2570,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45">
+    <row ht="45" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -2562,7 +2611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="60">
+    <row ht="60" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -2603,7 +2652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="60">
+    <row ht="60" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2644,7 +2693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="60">
+    <row ht="60" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
@@ -2683,7 +2732,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30">
+    <row ht="30" r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -2724,7 +2773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30">
+    <row ht="30" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
@@ -2765,7 +2814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30">
+    <row ht="30" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2806,7 +2855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="75">
+    <row ht="75" r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -2847,7 +2896,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="45">
+    <row ht="45" r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -2888,7 +2937,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="90">
+    <row ht="90" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -2929,7 +2978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="45">
+    <row ht="45" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -2968,7 +3017,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30">
+    <row ht="30" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -3007,7 +3056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30">
+    <row ht="30" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3044,7 +3093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="45">
+    <row ht="45" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -3083,7 +3132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45">
+    <row ht="45" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
@@ -3122,7 +3171,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row ht="30" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -3159,7 +3208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="45">
+    <row ht="45" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
@@ -3198,7 +3247,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="45">
+    <row ht="45" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
@@ -3237,7 +3286,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="45">
+    <row ht="45" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3276,7 +3325,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="45">
+    <row ht="45" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -3315,7 +3364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="45">
+    <row ht="45" r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -3354,7 +3403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row ht="30" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
@@ -3391,7 +3440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="75">
+    <row ht="75" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
@@ -3430,7 +3479,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="60">
+    <row ht="60" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3467,7 +3516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="45">
+    <row ht="45" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -3506,7 +3555,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="45">
+    <row ht="45" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
@@ -3545,7 +3594,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="45">
+    <row ht="45" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -3586,7 +3635,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="45">
+    <row ht="45" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
@@ -3627,7 +3676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="45">
+    <row ht="45" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -3668,7 +3717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="45">
+    <row ht="45" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
@@ -3709,7 +3758,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="45">
+    <row ht="45" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -3750,7 +3799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="45">
+    <row ht="45" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -3791,7 +3840,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="45">
+    <row ht="45" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -3832,7 +3881,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="45">
+    <row ht="45" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -3873,7 +3922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30">
+    <row ht="30" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -3912,7 +3961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="45">
+    <row ht="45" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>50</v>
       </c>
@@ -3951,7 +4000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="60">
+    <row ht="60" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
         <v>51</v>
       </c>
@@ -3990,7 +4039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="75">
+    <row ht="75" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
         <v>51</v>
       </c>
@@ -4029,7 +4078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="60">
+    <row ht="60" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
@@ -4070,7 +4119,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="30">
+    <row ht="30" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
@@ -4109,7 +4158,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="75">
+    <row ht="75" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
@@ -4148,7 +4197,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="30">
+    <row ht="30" r="59" spans="1:15">
       <c r="A59" s="4" t="s">
         <v>52</v>
       </c>
@@ -4189,7 +4238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="45">
+    <row ht="45" r="60" spans="1:15">
       <c r="A60" s="4" t="s">
         <v>52</v>
       </c>
@@ -4228,7 +4277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="75">
+    <row ht="75" r="61" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>52</v>
       </c>
@@ -4269,7 +4318,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="75">
+    <row ht="75" r="62" spans="1:15">
       <c r="A62" s="4" t="s">
         <v>52</v>
       </c>
@@ -4308,7 +4357,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="60">
+    <row ht="60" r="63" spans="1:15">
       <c r="A63" s="4" t="s">
         <v>52</v>
       </c>
@@ -4345,7 +4394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="30">
+    <row ht="30" r="64" spans="1:15">
       <c r="A64" s="4" t="s">
         <v>53</v>
       </c>
@@ -4386,7 +4435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="45">
+    <row ht="45" r="65" spans="1:15">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
@@ -4425,7 +4474,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="75">
+    <row ht="75" r="66" spans="1:15">
       <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
@@ -4466,7 +4515,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="45">
+    <row ht="45" r="67" spans="1:15">
       <c r="A67" s="4" t="s">
         <v>53</v>
       </c>
@@ -4507,7 +4556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="45">
+    <row ht="45" r="68" spans="1:15">
       <c r="A68" s="4" t="s">
         <v>53</v>
       </c>
@@ -4546,7 +4595,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="60">
+    <row ht="60" r="69" spans="1:15">
       <c r="A69" s="4" t="s">
         <v>53</v>
       </c>
@@ -4624,7 +4673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="45">
+    <row ht="45" r="71" spans="1:15">
       <c r="A71" s="4" t="s">
         <v>54</v>
       </c>
@@ -4651,12 +4700,14 @@
         <v>278</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N71" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O71" s="4" t="s">
         <v>91</v>
       </c>
@@ -4698,7 +4749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="45">
+    <row ht="45" r="73" spans="1:15">
       <c r="A73" s="4" t="s">
         <v>54</v>
       </c>
@@ -4774,7 +4825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="45">
+    <row ht="45" r="75" spans="1:15">
       <c r="A75" s="4" t="s">
         <v>54</v>
       </c>
@@ -4813,7 +4864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="60">
+    <row ht="60" r="76" spans="1:15">
       <c r="A76" s="4" t="s">
         <v>55</v>
       </c>
@@ -4852,7 +4903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="45">
+    <row ht="45" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
         <v>263</v>
       </c>
@@ -4891,7 +4942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="30">
+    <row ht="30" r="78" spans="1:15">
       <c r="A78" s="4" t="s">
         <v>287</v>
       </c>
@@ -4930,7 +4981,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="30">
+    <row ht="30" r="79" spans="1:15">
       <c r="A79" s="4" t="s">
         <v>287</v>
       </c>
@@ -5004,7 +5055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="45">
+    <row ht="45" r="81" spans="1:15">
       <c r="A81" s="4" t="s">
         <v>287</v>
       </c>
@@ -5045,39 +5096,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="G64" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="H6"/>
+    <hyperlink r:id="rId2" ref="G64"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="6" max="10" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="20.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="1" s="2" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -5124,7 +5175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -5161,7 +5212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row ht="30" r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -5200,7 +5251,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -5239,7 +5290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row ht="45" r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -5278,7 +5329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="45">
+    <row ht="45" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -5323,7 +5374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row ht="30" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -5364,7 +5415,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row ht="30" r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5403,7 +5454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row ht="45" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -5444,7 +5495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60">
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -5485,7 +5536,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60">
+    <row ht="60" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -5526,7 +5577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60">
+    <row ht="60" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -5567,10 +5618,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="H6"/>
+    <hyperlink r:id="rId2" ref="G6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="345">
   <si>
     <t>Action</t>
   </si>
@@ -803,12 +803,6 @@
     <t>"6000"</t>
   </si>
   <si>
-    <t>action click failed</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>.//span[normalize-space(@class) = 'customer-name']/span</t>
   </si>
   <si>
@@ -918,9 +912,6 @@
   </si>
   <si>
     <t>Click: null</t>
-  </si>
-  <si>
-    <t>SetText: Randomemailid</t>
   </si>
   <si>
     <t>SetText: 123456</t>
@@ -1009,115 +1000,73 @@
     <t>SetText: asdasd@assdcsadsaasd.com</t>
   </si>
   <si>
+    <t>Wait: 3000</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct: null</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>Latin American</t>
+  </si>
+  <si>
+    <t>verify Header "Latin American"</t>
+  </si>
+  <si>
+    <t>Header Latin American should appear on the screen</t>
+  </si>
+  <si>
+    <t>POPULAR CATEGORIES</t>
+  </si>
+  <si>
+    <t>verify Header "POPULAR CATEGORIES"</t>
+  </si>
+  <si>
+    <t>Header "POPULAR CATEGORIES" should appear on the screen</t>
+  </si>
+  <si>
+    <t>verify headers offer, meals and POPULAR CATEGORIES and verify the link under POPULAR CATEGORIES</t>
+  </si>
+  <si>
+    <t>Verify Multilink section is working or not</t>
+  </si>
+  <si>
+    <t>VerifyPopularMultiLink</t>
+  </si>
+  <si>
+    <t>//section[normalize-space(@class) = 'multilinks__container _block']</t>
+  </si>
+  <si>
+    <t>MultiLink section should work fine.</t>
+  </si>
+  <si>
+    <t>userchandna9779109@mailinator.com</t>
+  </si>
+  <si>
+    <t>SetText: userchandna9779109@mailinator.com</t>
+  </si>
+  <si>
+    <t>VerifyText: Latin American</t>
+  </si>
+  <si>
+    <t>VerifyText: POPULAR CATEGORIES</t>
+  </si>
+  <si>
+    <t>VerifyPopularMultiLink: null</t>
+  </si>
+  <si>
+    <t>SetText: userchandna7049580@mailinator.com</t>
+  </si>
+  <si>
     <t>VerifyText: Thank you for your subscription.</t>
   </si>
   <si>
-    <t>Wait: 3000</t>
-  </si>
-  <si>
-    <t>VerifyCategoryAndProduct: null</t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks: null</t>
-  </si>
-  <si>
-    <t>Wait: 6000</t>
-  </si>
-  <si>
-    <t>Latin American</t>
-  </si>
-  <si>
-    <t>verify Header "Latin American"</t>
-  </si>
-  <si>
-    <t>Header Latin American should appear on the screen</t>
-  </si>
-  <si>
-    <t>POPULAR CATEGORIES</t>
-  </si>
-  <si>
-    <t>verify Header "POPULAR CATEGORIES"</t>
-  </si>
-  <si>
-    <t>Header "POPULAR CATEGORIES" should appear on the screen</t>
-  </si>
-  <si>
-    <t>verify headers offer, meals and POPULAR CATEGORIES and verify the link under POPULAR CATEGORIES</t>
-  </si>
-  <si>
-    <t>Verify Multilink section is working or not</t>
-  </si>
-  <si>
-    <t>VerifyPopularMultiLink</t>
-  </si>
-  <si>
-    <t>//section[normalize-space(@class) = 'multilinks__container _block']</t>
-  </si>
-  <si>
-    <t>MultiLink section should work fine.</t>
-  </si>
-  <si>
-    <t>userchandna9779109@mailinator.com</t>
-  </si>
-  <si>
-    <t>SetText: userchandna9779109@mailinator.com</t>
-  </si>
-  <si>
-    <t>VerifyText: Latin American</t>
-  </si>
-  <si>
-    <t>VerifyText: POPULAR CATEGORIES</t>
-  </si>
-  <si>
-    <t>VerifyPopularMultiLink: null</t>
-  </si>
-  <si>
-    <t>text not verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13124_418}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 1a9eb8faadaec50215f32bb72e5efa1c
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 51b547a09bf804211694a94802a1d480</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 51b547a09bf804211694a94802a1d480
-*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
+    <t>SetText: Randomemailid</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1752,7 +1701,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1816,7 +1765,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1824,7 +1773,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1837,15 +1786,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -1853,17 +1802,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1873,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1956,7 +1905,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1965,7 +1914,7 @@
         <v>68</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
@@ -2004,7 +1953,7 @@
         <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -2043,7 +1992,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -2082,7 +2031,7 @@
         <v>71</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -2094,7 +2043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:15">
+    <row ht="45" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2066,7 @@
         <v>251</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>251</v>
@@ -2127,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -2168,7 +2117,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -2207,7 +2156,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -2236,7 +2185,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>252</v>
@@ -2248,7 +2197,7 @@
         <v>75</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -2276,7 +2225,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2285,7 +2234,7 @@
         <v>68</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -2314,7 +2263,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2324,7 +2273,7 @@
         <v>102</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -2363,7 +2312,7 @@
         <v>103</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -2402,7 +2351,7 @@
         <v>107</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
@@ -2441,7 +2390,7 @@
         <v>108</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -2480,7 +2429,7 @@
         <v>104</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -2519,7 +2468,7 @@
         <v>105</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -2558,7 +2507,7 @@
         <v>106</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>21</v>
@@ -2578,7 +2527,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>57</v>
@@ -2587,19 +2536,19 @@
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>21</v>
@@ -2619,7 +2568,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>57</v>
@@ -2628,19 +2577,19 @@
         <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>21</v>
@@ -2660,7 +2609,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>57</v>
@@ -2669,19 +2618,19 @@
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -2701,26 +2650,26 @@
         <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -2761,7 +2710,7 @@
         <v>116</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -2802,7 +2751,7 @@
         <v>117</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -2843,7 +2792,7 @@
         <v>118</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>21</v>
@@ -2884,7 +2833,7 @@
         <v>127</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -2925,7 +2874,7 @@
         <v>128</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -2966,7 +2915,7 @@
         <v>139</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -3005,7 +2954,7 @@
         <v>140</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>21</v>
@@ -3033,7 +2982,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>137</v>
@@ -3044,7 +2993,7 @@
         <v>141</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -3081,7 +3030,7 @@
         <v>142</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -3120,7 +3069,7 @@
         <v>143</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>21</v>
@@ -3148,7 +3097,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>137</v>
@@ -3159,7 +3108,7 @@
         <v>144</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -3196,7 +3145,7 @@
         <v>145</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -3235,7 +3184,7 @@
         <v>155</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>21</v>
@@ -3274,7 +3223,7 @@
         <v>154</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>21</v>
@@ -3313,7 +3262,7 @@
         <v>156</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>21</v>
@@ -3352,7 +3301,7 @@
         <v>158</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -3391,7 +3340,7 @@
         <v>169</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>21</v>
@@ -3428,7 +3377,7 @@
         <v>170</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -3457,7 +3406,7 @@
         <v>20</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3467,7 +3416,7 @@
         <v>171</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>21</v>
@@ -3495,7 +3444,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -3504,7 +3453,7 @@
         <v>172</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>21</v>
@@ -3543,7 +3492,7 @@
         <v>155</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>21</v>
@@ -3579,10 +3528,10 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>21</v>
@@ -3623,7 +3572,7 @@
         <v>175</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -3664,7 +3613,7 @@
         <v>185</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -3705,7 +3654,7 @@
         <v>187</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -3746,7 +3695,7 @@
         <v>189</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -3787,7 +3736,7 @@
         <v>191</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -3828,7 +3777,7 @@
         <v>193</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -3869,7 +3818,7 @@
         <v>195</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -3910,7 +3859,7 @@
         <v>197</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -3949,7 +3898,7 @@
         <v>203</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>21</v>
@@ -3988,7 +3937,7 @@
         <v>199</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -4027,7 +3976,7 @@
         <v>216</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>21</v>
@@ -4066,7 +4015,7 @@
         <v>214</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>21</v>
@@ -4107,7 +4056,7 @@
         <v>215</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -4146,7 +4095,7 @@
         <v>216</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>21</v>
@@ -4185,7 +4134,7 @@
         <v>217</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -4226,7 +4175,7 @@
         <v>220</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -4265,7 +4214,7 @@
         <v>223</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>21</v>
@@ -4306,7 +4255,7 @@
         <v>227</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -4335,7 +4284,7 @@
         <v>20</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -4345,7 +4294,7 @@
         <v>171</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>21</v>
@@ -4373,7 +4322,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -4382,7 +4331,7 @@
         <v>172</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>21</v>
@@ -4414,7 +4363,7 @@
         <v>231</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -4423,7 +4372,7 @@
         <v>238</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -4462,7 +4411,7 @@
         <v>239</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>21</v>
@@ -4482,7 +4431,7 @@
         <v>36</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>57</v>
@@ -4491,19 +4440,19 @@
         <v>63</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -4534,7 +4483,7 @@
       <c r="F67" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="11" t="s">
         <v>237</v>
       </c>
       <c r="H67" s="4"/>
@@ -4544,7 +4493,7 @@
         <v>238</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -4583,7 +4532,7 @@
         <v>239</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>21</v>
@@ -4624,7 +4573,7 @@
         <v>240</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>21</v>
@@ -4652,7 +4601,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -4661,7 +4610,7 @@
         <v>254</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>21</v>
@@ -4681,7 +4630,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>19</v>
@@ -4690,17 +4639,17 @@
         <v>20</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>21</v>
@@ -4728,7 +4677,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -4737,7 +4686,7 @@
         <v>254</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -4757,7 +4706,7 @@
         <v>37</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>19</v>
@@ -4766,17 +4715,17 @@
         <v>20</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -4804,7 +4753,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -4813,7 +4762,7 @@
         <v>254</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -4833,7 +4782,7 @@
         <v>39</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>19</v>
@@ -4842,17 +4791,17 @@
         <v>20</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -4891,7 +4840,7 @@
         <v>243</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -4905,32 +4854,32 @@
     </row>
     <row ht="45" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>21</v>
@@ -4944,7 +4893,7 @@
     </row>
     <row ht="30" r="78" spans="1:15">
       <c r="A78" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>34</v>
@@ -4969,7 +4918,7 @@
         <v>246</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>21</v>
@@ -4983,7 +4932,7 @@
     </row>
     <row ht="30" r="79" spans="1:15">
       <c r="A79" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>35</v>
@@ -5008,7 +4957,7 @@
         <v>249</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -5022,7 +4971,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>36</v>
@@ -5043,7 +4992,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>21</v>
@@ -5057,7 +5006,7 @@
     </row>
     <row ht="45" r="81" spans="1:15">
       <c r="A81" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>37</v>
@@ -5082,7 +5031,7 @@
         <v>69</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>21</v>
@@ -5098,9 +5047,10 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H6"/>
     <hyperlink r:id="rId2" ref="G64"/>
+    <hyperlink r:id="rId3" ref="G67"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5191,7 +5141,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -5200,7 +5150,7 @@
         <v>68</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
@@ -5239,7 +5189,7 @@
         <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -5278,7 +5228,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -5317,7 +5267,7 @@
         <v>71</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -5349,10 +5299,10 @@
         <v>64</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>251</v>
@@ -5362,7 +5312,7 @@
         <v>74</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -5403,7 +5353,7 @@
         <v>73</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -5442,7 +5392,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -5462,7 +5412,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>57</v>
@@ -5471,19 +5421,19 @@
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -5503,7 +5453,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>57</v>
@@ -5512,19 +5462,19 @@
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -5544,7 +5494,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>57</v>
@@ -5553,19 +5503,19 @@
         <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -5585,26 +5535,26 @@
         <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>

--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="345">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="399">
   <si>
     <t>Action</t>
   </si>
@@ -1067,6 +1067,488 @@
   </si>
   <si>
     <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 52 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'customer-name']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 33 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'customer-name']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: My Account</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: Account Information</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: My Orders</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: My Saved Cards</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: My Wish List</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: Delivery Coverage</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: Offers</t>
+  </si>
+  <si>
+    <t>action Header Menu link Search failed: Sign Out</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 61 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>text not verified: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 49 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>action set text failed: milk</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id="search"]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 32 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//*[@id="search"]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action search']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action search']}</t>
+  </si>
+  <si>
+    <t>action Product Search failed: Skim Plus 100% Fat Free Milk</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']}</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 34 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 28 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: newsletter-error (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47</t>
+  </si>
+  <si>
+    <t>action set text failed: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"newsletter"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=id, value=newsletter}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'action subscribe primary']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'action subscribe primary']}</t>
+  </si>
+  <si>
+    <t>text not verified: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-prev slick-arrow']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 27 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-prev slick-arrow']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct Failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action VerifyFooterLinks failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'footer__inner-left']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'footer__inner-left']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir15604_25552}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 285dfc6c4ff02f19aa04f0a8aca12f47
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //div[normalize-space(@class) = 'text'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5040_26764}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3e64722b4d47d0c55a846240d2b0a5d4</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//button[normalize-space(@class) = 'slick-next slick-arrow']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5040_26764}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 3e64722b4d47d0c55a846240d2b0a5d4
+*** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
   </si>
 </sst>
 </file>
@@ -4573,13 +5055,13 @@
         <v>240</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>22</v>
+        <v>397</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>91</v>
@@ -4649,13 +5131,13 @@
         <v>276</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>91</v>

--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="424">
   <si>
     <t>Action</t>
   </si>
@@ -1549,6 +1549,264 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir5040_26764}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 3e64722b4d47d0c55a846240d2b0a5d4
 *** Element info: {Using=xpath, value=//button[normalize-space(@class) = 'slick-next slick-arrow']}</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a href="javascript:void(0);" onclick="openSignInWindow()"&gt;...&lt;/a&gt; is not clickable at point (1238, 51). Other element would receive the click: &lt;div id="bg_fade" style="opacity: 0.3; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 33 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>text not verified: Akash Sangal</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: .//span[normalize-space(@class) = 'customer-name']/span (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>action VerifyPopularMultiLink failed</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a href="/grocery"&gt;...&lt;/a&gt; is not clickable at point (119, 552). Other element would receive the click: &lt;div id="bg_fade" style="opacity: 0.3; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 60 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a target="_blank" href="https://www.citymarketnorwalk.com/terms-of-use/"&gt;...&lt;/a&gt; is not clickable at point (813, 620). Other element would receive the click: &lt;div id="bg_fade" style="opacity: 0.3; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 43 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a target="_blank" href="https://www.citymarketnorwalk.com/privacy-policy-cookie-restriction-mode/"&gt;...&lt;/a&gt; is not clickable at point (919, 620). Other element would receive the click: &lt;div id="bg_fade" style="opacity: 0.3; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 71 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a href="/offers"&gt;...&lt;/a&gt; is not clickable at point (1162, 51). Other element would receive the click: &lt;div id="bg_fade" style="opacity: 0.3; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 54 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a href="javascript:void(0);" onclick="openSignInWindow()"&gt;...&lt;/a&gt; is not clickable at point (1238, 51). Other element would receive the click: &lt;div id="bg_fade" style="opacity: 0.3; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 73 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;img src="https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png" alt="City Market Norwalk" width="148" height="43"&gt; is not clickable at point (89, 36). Other element would receive the click: &lt;div id="bg_fade" style="opacity: 0.3; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 51 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[normalize-space(@class) = 'customer-name']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//span[normalize-space(@class) = 'customer-name']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'header links']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 40 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'header links']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>unknown error: Element &lt;a class="action showcart icon icon-main-cart" href="https://www.citymarketnorwalk.com/checkout/cart/" data-bind="scope: 'minicart_content'"&gt;...&lt;/a&gt; is not clickable at point (1319, 52). Other element would receive the click: &lt;div id="bg_fade" style="opacity: 0.3; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 52 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16960_11180}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 5353a69c3c1c45147a506b429ddabf7d</t>
   </si>
 </sst>
 </file>
@@ -5055,13 +5313,13 @@
         <v>240</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>346</v>
+        <v>21</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>397</v>
+        <v>22</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>91</v>
@@ -5131,13 +5389,13 @@
         <v>276</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>346</v>
+        <v>21</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>91</v>
@@ -5325,7 +5583,7 @@
         <v>323</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>22</v>

--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="424">
   <si>
     <t>Action</t>
   </si>
@@ -5583,7 +5583,7 @@
         <v>323</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>346</v>
+        <v>21</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>22</v>

--- a/lib_testcase/com.aislend.HomePage.xlsx
+++ b/lib_testcase/com.aislend.HomePage.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5654" uniqueCount="424">
   <si>
     <t>Action</t>
   </si>
